--- a/Docs/Lista06.xlsx
+++ b/Docs/Lista06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\curso-excel\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD5C4A50-B545-4B26-8E8F-16BFFD194747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F028B24-C228-47E1-984D-DC439AE9BC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exerc1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Exerc4" sheetId="4" r:id="rId4"/>
     <sheet name="Exerc5" sheetId="5" r:id="rId5"/>
     <sheet name="Exerc6" sheetId="6" r:id="rId6"/>
-    <sheet name="Exerc7" sheetId="7" r:id="rId7"/>
+    <sheet name="Exerc7" sheetId="11" r:id="rId7"/>
     <sheet name="Filial1" sheetId="8" r:id="rId8"/>
     <sheet name="Filial2" sheetId="9" r:id="rId9"/>
     <sheet name="Resumo" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="[$-416]General"/>
@@ -434,47 +434,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Excel_BuiltIn_Currency" xfId="1"/>
-    <cellStyle name="Heading" xfId="2"/>
-    <cellStyle name="Heading1" xfId="3"/>
+    <cellStyle name="Excel_BuiltIn_Currency" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Heading" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Heading1" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="4"/>
-    <cellStyle name="Result2" xfId="5"/>
+    <cellStyle name="Result" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Result2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -487,26 +478,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_DB__1" displayName="__Anonymous_DB__1" ref="A1:H8" totalsRowShown="0">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H8">
-    <sortCondition ref="H2:H8"/>
-    <sortCondition ref="D2:D8"/>
-  </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" name="NOME"/>
-    <tableColumn id="2" name="DATA NAS."/>
-    <tableColumn id="3" name="SALÁRIO"/>
-    <tableColumn id="4" name="SEXO"/>
-    <tableColumn id="5" name="END."/>
-    <tableColumn id="6" name="BAIRRO"/>
-    <tableColumn id="7" name="CIDADE"/>
-    <tableColumn id="8" name="ESTADO"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -825,10 +796,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -850,16 +821,16 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -867,139 +838,139 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>3.4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>6.5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>5.6</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>4.5</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>6.5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>9</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>8.5</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>7.5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>3.8</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.74800000000000011" right="0.74800000000000011" top="1.2792000000000001" bottom="1.2792000000000001" header="0.9839" footer="0.9839"/>
@@ -1009,8 +980,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1024,22 +995,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1055,11 +1026,6 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1072,7 +1038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1094,7 +1060,7 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>1000</v>
       </c>
     </row>
@@ -1102,7 +1068,7 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>60</v>
       </c>
     </row>
@@ -1110,7 +1076,7 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1118,7 +1084,7 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>0.2</v>
       </c>
     </row>
@@ -1126,7 +1092,7 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="11" spans="1:2" ht="12.75" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -1153,14 +1119,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="AMK1:XFD1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1024" width="8.3984375" style="10" customWidth="1"/>
+    <col min="1" max="1024" width="8.3984375" style="7" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.74800000000000011" right="0.74800000000000011" top="1.2792000000000001" bottom="1.2792000000000001" header="0.9839" footer="0.9839"/>
@@ -1170,98 +1136,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.69921875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.09765625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="30.8984375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="26.296875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.296875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="7.8984375" style="11" customWidth="1"/>
-    <col min="9" max="1024" width="8.3984375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="19.69921875" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
+    <col min="4" max="4" width="30.8984375" customWidth="1"/>
+    <col min="5" max="5" width="26.296875" customWidth="1"/>
+    <col min="6" max="6" width="12.296875" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" customWidth="1"/>
+    <col min="8" max="8" width="7.8984375" customWidth="1"/>
+    <col min="9" max="1024" width="8.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B9" s="15"/>
+      <c r="B9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1275,10 +1243,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -1323,10 +1293,10 @@
       <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="11">
         <v>36152</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>850</v>
       </c>
       <c r="D2" t="s">
@@ -1349,10 +1319,10 @@
       <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="11">
         <v>32612</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>750</v>
       </c>
       <c r="D3" t="s">
@@ -1375,10 +1345,10 @@
       <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="11">
         <v>34226</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>775</v>
       </c>
       <c r="D4" t="s">
@@ -1401,10 +1371,10 @@
       <c r="A5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="11">
         <v>34619</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>800</v>
       </c>
       <c r="D5" t="s">
@@ -1427,10 +1397,10 @@
       <c r="A6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="11">
         <v>32098</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>980</v>
       </c>
       <c r="D6" t="s">
@@ -1442,7 +1412,7 @@
       <c r="F6" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" t="s">
         <v>65</v>
       </c>
       <c r="H6" t="s">
@@ -1450,13 +1420,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="11">
         <v>33018</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>920</v>
       </c>
       <c r="D7" t="s">
@@ -1468,7 +1438,7 @@
       <c r="F7" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" t="s">
         <v>65</v>
       </c>
       <c r="H7" t="s">
@@ -1479,10 +1449,10 @@
       <c r="A8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="11">
         <v>34987</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>950</v>
       </c>
       <c r="D8" t="s">
@@ -1494,15 +1464,12 @@
       <c r="F8" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" t="s">
         <v>65</v>
       </c>
       <c r="H8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B9" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.74800000000000011" right="0.74800000000000011" top="1.2792000000000001" bottom="1.2792000000000001" header="0.9839" footer="0.9839"/>
@@ -1512,10 +1479,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -1560,10 +1529,10 @@
       <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="11">
         <v>36152</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>850</v>
       </c>
       <c r="D2" t="s">
@@ -1586,10 +1555,10 @@
       <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="11">
         <v>32612</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>750</v>
       </c>
       <c r="D3" t="s">
@@ -1612,10 +1581,10 @@
       <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="11">
         <v>34226</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>775</v>
       </c>
       <c r="D4" t="s">
@@ -1638,10 +1607,10 @@
       <c r="A5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="11">
         <v>34619</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>800</v>
       </c>
       <c r="D5" t="s">
@@ -1664,10 +1633,10 @@
       <c r="A6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="11">
         <v>32098</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>980</v>
       </c>
       <c r="D6" t="s">
@@ -1679,7 +1648,7 @@
       <c r="F6" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" t="s">
         <v>65</v>
       </c>
       <c r="H6" t="s">
@@ -1687,13 +1656,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="11">
         <v>33018</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>920</v>
       </c>
       <c r="D7" t="s">
@@ -1705,7 +1674,7 @@
       <c r="F7" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" t="s">
         <v>65</v>
       </c>
       <c r="H7" t="s">
@@ -1716,10 +1685,10 @@
       <c r="A8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="11">
         <v>34987</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>950</v>
       </c>
       <c r="D8" t="s">
@@ -1731,15 +1700,12 @@
       <c r="F8" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" t="s">
         <v>65</v>
       </c>
       <c r="H8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B9" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.74800000000000011" right="0.74800000000000011" top="1.2792000000000001" bottom="1.2792000000000001" header="0.9839" footer="0.9839"/>
@@ -1749,10 +1715,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5A3C58-B6E7-4838-8D4C-670516A22DC1}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -1797,10 +1765,10 @@
       <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="11">
         <v>36152</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>850</v>
       </c>
       <c r="D2" t="s">
@@ -1823,10 +1791,10 @@
       <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="11">
         <v>32612</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>750</v>
       </c>
       <c r="D3" t="s">
@@ -1849,10 +1817,10 @@
       <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="11">
         <v>34226</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>775</v>
       </c>
       <c r="D4" t="s">
@@ -1875,10 +1843,10 @@
       <c r="A5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="11">
         <v>34619</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>800</v>
       </c>
       <c r="D5" t="s">
@@ -1901,10 +1869,10 @@
       <c r="A6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="11">
         <v>32098</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>980</v>
       </c>
       <c r="D6" t="s">
@@ -1916,7 +1884,7 @@
       <c r="F6" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" t="s">
         <v>65</v>
       </c>
       <c r="H6" t="s">
@@ -1924,13 +1892,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="11">
         <v>33018</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>920</v>
       </c>
       <c r="D7" t="s">
@@ -1942,7 +1910,7 @@
       <c r="F7" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" t="s">
         <v>65</v>
       </c>
       <c r="H7" t="s">
@@ -1953,10 +1921,10 @@
       <c r="A8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="11">
         <v>34987</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>950</v>
       </c>
       <c r="D8" t="s">
@@ -1968,31 +1936,25 @@
       <c r="F8" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" t="s">
         <v>65</v>
       </c>
       <c r="H8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B9" s="19"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.74800000000000011" right="0.74800000000000011" top="1.2792000000000001" bottom="1.2792000000000001" header="0.9839" footer="0.9839"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter alignWithMargins="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -2004,28 +1966,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2056,12 +2018,12 @@
       <c r="B4">
         <v>250</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" t="s">
@@ -2070,12 +2032,12 @@
       <c r="B5">
         <v>75</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" t="s">
@@ -2084,22 +2046,22 @@
       <c r="B6">
         <v>200</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2112,10 +2074,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -2127,28 +2091,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2179,12 +2143,12 @@
       <c r="B4">
         <v>125</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>3.5</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" t="s">
@@ -2193,12 +2157,12 @@
       <c r="B5">
         <v>120</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>8.5</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" t="s">
@@ -2207,22 +2171,22 @@
       <c r="B6">
         <v>100</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Docs/Lista06.xlsx
+++ b/Docs/Lista06.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\curso-excel\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\curso-excel\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F028B24-C228-47E1-984D-DC439AE9BC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1827A8AD-BC79-480D-B59E-D1821F55A2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exerc1" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,13 @@
     <sheet name="Exerc5" sheetId="5" r:id="rId5"/>
     <sheet name="Exerc6" sheetId="6" r:id="rId6"/>
     <sheet name="Exerc7" sheetId="11" r:id="rId7"/>
-    <sheet name="Filial1" sheetId="8" r:id="rId8"/>
-    <sheet name="Filial2" sheetId="9" r:id="rId9"/>
-    <sheet name="Resumo" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="72">
   <si>
     <t>NOME</t>
   </si>
@@ -245,57 +242,6 @@
   </si>
   <si>
     <t>NOVA ILHA</t>
-  </si>
-  <si>
-    <t>CASA AGRÍCOLA POTY: FILIAL 1</t>
-  </si>
-  <si>
-    <t>VALOR UNIT.</t>
-  </si>
-  <si>
-    <t>VALOR EST.</t>
-  </si>
-  <si>
-    <t>ITENS</t>
-  </si>
-  <si>
-    <t>QUNTIDADE</t>
-  </si>
-  <si>
-    <t>(EM US$)</t>
-  </si>
-  <si>
-    <t>(EM R$)</t>
-  </si>
-  <si>
-    <t>SAL</t>
-  </si>
-  <si>
-    <t>SAL MINERAL</t>
-  </si>
-  <si>
-    <t>UREIA</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>CASA AGRÍCOLA POTY: FILIAL 2</t>
-  </si>
-  <si>
-    <t>RESUMO DAS FILIAIS</t>
-  </si>
-  <si>
-    <t>FILIAL1</t>
-  </si>
-  <si>
-    <t>FILIAL2</t>
-  </si>
-  <si>
-    <t>VALOR EST. (EM US$)</t>
-  </si>
-  <si>
-    <t>VALOR EST. (EM R$)</t>
   </si>
 </sst>
 </file>
@@ -310,7 +256,7 @@
     <numFmt numFmtId="168" formatCode="&quot; R$&quot;* #,##0.00&quot; &quot;;&quot; R$&quot;* &quot;(&quot;#,##0.00&quot;)&quot;;&quot; R$&quot;* &quot;-&quot;#&quot; &quot;;@&quot; &quot;"/>
     <numFmt numFmtId="169" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,13 +293,6 @@
       <color theme="1"/>
       <name val="Arial1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -369,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -412,15 +351,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -434,7 +364,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -450,14 +380,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel_BuiltIn_Currency" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -799,15 +725,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.69921875" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" customWidth="1"/>
-    <col min="3" max="1024" width="8.3984375" customWidth="1"/>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="1024" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1">
@@ -979,75 +905,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="19.19921875" customWidth="1"/>
-    <col min="2" max="2" width="11.796875" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="1024" width="8.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.74800000000000011" right="0.74800000000000011" top="1.2792000000000001" bottom="1.2792000000000001" header="0.9839" footer="0.9839"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
-    <col min="3" max="1024" width="8.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="1024" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" customHeight="1">
@@ -1126,7 +996,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1024" width="8.3984375" style="7" customWidth="1"/>
+    <col min="1" max="1024" width="8.375" style="7" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.74800000000000011" right="0.74800000000000011" top="1.2792000000000001" bottom="1.2792000000000001" header="0.9839" footer="0.9839"/>
@@ -1145,32 +1015,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.69921875" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="13.09765625" customWidth="1"/>
-    <col min="4" max="4" width="30.8984375" customWidth="1"/>
-    <col min="5" max="5" width="26.296875" customWidth="1"/>
-    <col min="6" max="6" width="12.296875" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" customWidth="1"/>
-    <col min="8" max="8" width="7.8984375" customWidth="1"/>
-    <col min="9" max="1024" width="8.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="30.875" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="7.875" customWidth="1"/>
+    <col min="9" max="1024" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -1252,15 +1122,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="6.3984375" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="15.296875" customWidth="1"/>
-    <col min="7" max="7" width="14.296875" customWidth="1"/>
-    <col min="8" max="8" width="7.8984375" customWidth="1"/>
-    <col min="9" max="1024" width="8.3984375" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="7.875" customWidth="1"/>
+    <col min="9" max="1024" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
@@ -1488,15 +1358,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="6.3984375" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="15.296875" customWidth="1"/>
-    <col min="7" max="7" width="14.296875" customWidth="1"/>
-    <col min="8" max="8" width="7.8984375" customWidth="1"/>
-    <col min="9" max="1024" width="8.3984375" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="7.875" customWidth="1"/>
+    <col min="9" max="1024" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
@@ -1718,21 +1588,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5A3C58-B6E7-4838-8D4C-670516A22DC1}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="6.3984375" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="15.296875" customWidth="1"/>
-    <col min="7" max="7" width="14.296875" customWidth="1"/>
-    <col min="8" max="8" width="7.8984375" customWidth="1"/>
-    <col min="9" max="1024" width="8.3984375" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="7.875" customWidth="1"/>
+    <col min="9" max="1024" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
@@ -1946,254 +1814,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="12.296875" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" customWidth="1"/>
-    <col min="3" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="6" width="11.09765625" customWidth="1"/>
-    <col min="7" max="1024" width="8.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4">
-        <v>250</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.74800000000000011" right="0.74800000000000011" top="1.2792000000000001" bottom="1.2792000000000001" header="0.9839" footer="0.9839"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="12.296875" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" customWidth="1"/>
-    <col min="3" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="6" width="11.09765625" customWidth="1"/>
-    <col min="7" max="1024" width="8.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4">
-        <v>125</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5">
-        <v>120</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.74800000000000011" right="0.74800000000000011" top="1.2792000000000001" bottom="1.2792000000000001" header="0.9839" footer="0.9839"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/Docs/Lista06.xlsx
+++ b/Docs/Lista06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\curso-excel\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1827A8AD-BC79-480D-B59E-D1821F55A2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A993CE17-203B-4254-BD24-68ACBE8B184C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exerc1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="Exerc5" sheetId="5" r:id="rId5"/>
     <sheet name="Exerc6" sheetId="6" r:id="rId6"/>
     <sheet name="Exerc7" sheetId="11" r:id="rId7"/>
+    <sheet name="Exerc8" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="72">
   <si>
     <t>NOME</t>
   </si>
@@ -1588,7 +1589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5A3C58-B6E7-4838-8D4C-670516A22DC1}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -1814,4 +1817,237 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2713FB9-3D8B-42CE-BA80-8C175661F243}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="11">
+        <v>36152</v>
+      </c>
+      <c r="C2" s="2">
+        <v>850</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="11">
+        <v>32612</v>
+      </c>
+      <c r="C3" s="2">
+        <v>750</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="11">
+        <v>34226</v>
+      </c>
+      <c r="C4" s="2">
+        <v>775</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="11">
+        <v>34619</v>
+      </c>
+      <c r="C5" s="2">
+        <v>800</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="11">
+        <v>32098</v>
+      </c>
+      <c r="C6" s="2">
+        <v>980</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="11">
+        <v>33018</v>
+      </c>
+      <c r="C7" s="2">
+        <v>920</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="11">
+        <v>34987</v>
+      </c>
+      <c r="C8" s="2">
+        <v>950</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>